--- a/backend/Excels/income_details.xlsx
+++ b/backend/Excels/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,24 +416,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Gift</v>
+        <v>Savings Acc Interest</v>
       </c>
       <c r="B2">
-        <v>275000</v>
+        <v>5026</v>
       </c>
       <c r="C2" s="1">
-        <v>45982.900812789354</v>
+        <v>45982.22928240741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Salary Bonus</v>
+        <v>FD Returns</v>
       </c>
       <c r="B3">
-        <v>75000</v>
+        <v>15022</v>
       </c>
       <c r="C3" s="1">
-        <v>45982.88692390046</v>
+        <v>45981.22928240741</v>
       </c>
     </row>
     <row r="4">
@@ -441,15 +441,26 @@
         <v>Salary</v>
       </c>
       <c r="B4">
-        <v>125000</v>
+        <v>127000</v>
       </c>
       <c r="C4" s="1">
-        <v>45981.92859056713</v>
+        <v>45968.22928240741</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Investment Returns</v>
+      </c>
+      <c r="B5">
+        <v>10356</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45966.22928240741</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>